--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.8採番方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.8採番方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB14601-D599-4327-A78D-D70B9C2561B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0A1040-0174-4351-A8B0-0C913A607A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>１トランザクションで複数のIDをする場合の注意点</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>なぜなら、業務コンポーネントで採番順序が異なる場合デッドロックが発生し、アプリケーションの処理続行が不可能となるからである。</t>
   </si>
   <si>
@@ -506,6 +502,13 @@
   </si>
   <si>
     <t>また、トランザクションが終了するまで該当のレコードはロックされるため、同時に同一の採番対象に採番要求が行われた場合でも、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１トランザクションで複数のIDを採番する場合の注意点</t>
+    <rPh sb="16" eb="18">
+      <t>サイバン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -789,6 +792,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -807,6 +837,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -825,62 +864,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1682,9 +1685,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="18" width="3.625" style="33"/>
-    <col min="19" max="19" width="3.625" style="33" customWidth="1"/>
-    <col min="20" max="16384" width="3.625" style="33"/>
+    <col min="1" max="18" width="3.625" style="20"/>
+    <col min="19" max="19" width="3.625" style="20" customWidth="1"/>
+    <col min="20" max="16384" width="3.625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1694,43 +1697,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="37"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="22"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="31"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1739,43 +1742,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="39"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="46"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="22"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="31"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1784,46 +1787,46 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="49"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="22"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="31"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1833,13 +1836,13 @@
         <f>$B$5&amp;"8."</f>
         <v>7.8.</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="14"/>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="20" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1848,25 +1851,25 @@
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="14"/>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>72</v>
+      <c r="E10" s="20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="14"/>
-      <c r="E11" s="33" t="s">
-        <v>73</v>
+      <c r="E11" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="14"/>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1875,13 +1878,13 @@
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="14"/>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="14"/>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="17" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="14"/>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1900,13 +1903,13 @@
         <f>$C$7&amp;"1."</f>
         <v>7.8.1.</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="14"/>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1915,19 +1918,19 @@
     </row>
     <row r="22" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="14"/>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="14"/>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1940,37 +1943,37 @@
         <f>$D$19&amp;"1."</f>
         <v>7.8.1.1.</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="14"/>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="14"/>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="14"/>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="14"/>
-      <c r="F29" s="33" t="s">
-        <v>74</v>
+      <c r="F29" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="14"/>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="32" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="14"/>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1988,19 +1991,19 @@
     </row>
     <row r="34" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="14"/>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="14"/>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="14"/>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2015,14 +2018,14 @@
         <f>$E$25&amp;"1."</f>
         <v>7.8.1.1.1.</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="14"/>
       <c r="E39" s="16"/>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2033,37 +2036,37 @@
     <row r="41" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="14"/>
       <c r="E41" s="16"/>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="45" t="s">
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="46"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="48"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="26"/>
     </row>
     <row r="42" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="14"/>
       <c r="E42" s="16"/>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="43" t="s">
+      <c r="J42" s="21" t="s">
         <v>40</v>
       </c>
       <c r="K42" s="19"/>
@@ -2078,17 +2081,17 @@
       <c r="T42" s="19"/>
       <c r="U42" s="19"/>
       <c r="V42" s="19"/>
-      <c r="W42" s="44"/>
+      <c r="W42" s="22"/>
     </row>
     <row r="43" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="14"/>
       <c r="E43" s="16"/>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="21" t="s">
         <v>38</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
-      <c r="J43" s="43" t="s">
+      <c r="J43" s="21" t="s">
         <v>41</v>
       </c>
       <c r="K43" s="19"/>
@@ -2103,7 +2106,7 @@
       <c r="T43" s="19"/>
       <c r="U43" s="19"/>
       <c r="V43" s="19"/>
-      <c r="W43" s="44"/>
+      <c r="W43" s="22"/>
     </row>
     <row r="44" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="14"/>
@@ -2116,29 +2119,29 @@
         <f>$E$25&amp;"2."</f>
         <v>7.8.1.1.2.</v>
       </c>
-      <c r="G45" s="33" t="s">
-        <v>42</v>
+      <c r="G45" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="14"/>
       <c r="E46" s="16"/>
-      <c r="G46" s="33" t="s">
-        <v>44</v>
+      <c r="G46" s="20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="14"/>
       <c r="E47" s="16"/>
-      <c r="G47" s="33" t="s">
-        <v>45</v>
+      <c r="G47" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="14"/>
       <c r="E48" s="16"/>
-      <c r="G48" s="33" t="s">
-        <v>43</v>
+      <c r="G48" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2151,15 +2154,15 @@
         <f>$D$19&amp;"2."</f>
         <v>7.8.1.2.</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="51" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="33" t="s">
-        <v>46</v>
+      <c r="F51" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2169,22 +2172,22 @@
     <row r="53" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="33" t="s">
-        <v>48</v>
+      <c r="F53" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="33" t="s">
-        <v>49</v>
+      <c r="F54" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="33" t="s">
-        <v>47</v>
+      <c r="F55" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2198,50 +2201,50 @@
         <f>$E$50&amp;"1."</f>
         <v>7.8.1.2.1.</v>
       </c>
-      <c r="G57" s="33" t="s">
-        <v>50</v>
+      <c r="G57" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-      <c r="G58" s="33" t="s">
-        <v>51</v>
+      <c r="G58" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
-      <c r="G59" s="33" t="s">
-        <v>52</v>
+      <c r="G59" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
-      <c r="G60" s="33" t="s">
-        <v>53</v>
+      <c r="G60" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="G61" s="33" t="s">
-        <v>56</v>
+      <c r="G61" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="G62" s="33" t="s">
-        <v>54</v>
+      <c r="G62" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="G63" s="33" t="s">
-        <v>55</v>
+      <c r="G63" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2251,8 +2254,8 @@
     <row r="65" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="G65" s="33" t="s">
-        <v>57</v>
+      <c r="G65" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2262,49 +2265,49 @@
     <row r="67" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
-      <c r="G67" s="33" t="s">
+      <c r="G67" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="33" t="s">
-        <v>58</v>
+      <c r="H67" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
-      <c r="H68" s="33" t="s">
-        <v>60</v>
+      <c r="H68" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
-      <c r="H69" s="33" t="s">
-        <v>61</v>
+      <c r="H69" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="33" t="s">
-        <v>59</v>
+      <c r="H70" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
-      <c r="H71" s="33" t="s">
-        <v>62</v>
+      <c r="H71" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
-      <c r="H72" s="33" t="s">
-        <v>63</v>
+      <c r="H72" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2322,19 +2325,19 @@
     <row r="75" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="16"/>
       <c r="E75" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="16"/>
       <c r="E76" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="16"/>
       <c r="E77" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2344,7 +2347,7 @@
     <row r="79" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="16"/>
       <c r="E79" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2357,14 +2360,14 @@
         <v>19</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="16"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="33" t="s">
-        <v>69</v>
+      <c r="F82" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2376,15 +2379,15 @@
       <c r="E84" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F84" s="33" t="s">
-        <v>70</v>
+      <c r="F84" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="33" t="s">
-        <v>71</v>
+      <c r="F85" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2400,58 +2403,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="4:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="49" t="s">
+    <row r="88" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E88" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="4:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E89" s="49"/>
-    </row>
-    <row r="90" spans="4:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E90" s="49"/>
-    </row>
-    <row r="91" spans="4:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E91" s="49"/>
-    </row>
-    <row r="92" spans="4:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E92" s="49"/>
-    </row>
-    <row r="93" spans="4:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D93" s="49"/>
-    </row>
-    <row r="94" spans="4:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D94" s="49"/>
-    </row>
-    <row r="95" spans="4:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E95" s="49"/>
-    </row>
-    <row r="96" spans="4:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F96" s="49"/>
-    </row>
-    <row r="97" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="49"/>
-    </row>
-    <row r="99" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F99" s="49"/>
-    </row>
-    <row r="100" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E101" s="49"/>
-    </row>
-    <row r="102" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F102" s="49"/>
-    </row>
-    <row r="103" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="5:6" s="50" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E89" s="27"/>
+    </row>
+    <row r="90" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E90" s="27"/>
+    </row>
+    <row r="91" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E91" s="27"/>
+    </row>
+    <row r="92" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E92" s="27"/>
+    </row>
+    <row r="93" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="27"/>
+    </row>
+    <row r="95" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E95" s="27"/>
+    </row>
+    <row r="96" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F96" s="27"/>
+    </row>
+    <row r="97" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E98" s="27"/>
+    </row>
+    <row r="99" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="27"/>
+    </row>
+    <row r="100" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E101" s="27"/>
+    </row>
+    <row r="102" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="27"/>
+    </row>
+    <row r="103" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="112" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.8採番方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.8採番方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0A1040-0174-4351-A8B0-0C913A607A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8736DD1E-1073-4ABC-B7E4-43F30054A636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="採番方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc292985312" localSheetId="0">採番方式!$E$87</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">採番方式!$A$1:$AI$107</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$94</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$94</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$94</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$94</definedName>
+    <definedName name="_Toc292985312" localSheetId="0">採番方式!$E$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">採番方式!$A$1:$AI$106</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$93</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$93</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$93</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -224,16 +224,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務上抜け番を許さないIDの場合は、本採番方式を使用して採番を行う。</t>
-    <rPh sb="18" eb="19">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ただし、同時に処理が行われた場合、一方のトランザクションが確定するまではロック解放待ちとなるため、パフォーマンスに与える影響が</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -352,22 +342,6 @@
     <t>「03→05→06」の順に採番を行わなければならない。</t>
   </si>
   <si>
-    <t>抜け番を許容するIDの採番は、Nablarchのシーケンスを使った値の採番を使用する。</t>
-    <rPh sb="30" eb="31">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>行うことができる。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -508,6 +482,65 @@
     <t>１トランザクションで複数のIDを採番する場合の注意点</t>
     <rPh sb="16" eb="18">
       <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シーケンスを使った値の採番を使用する。</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務上抜け番を許さないIDの場合はテーブルを使った値の採番を使用し、抜け番を許す場合は</t>
+    <rPh sb="0" eb="3">
+      <t>ギョウムジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -917,13 +950,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1000,13 +1033,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1089,13 +1122,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1156,13 +1189,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1212,13 +1245,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1268,13 +1301,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1679,7 +1712,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI519"/>
+  <dimension ref="A1:AI518"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1855,13 +1888,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="14"/>
       <c r="E11" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1939,160 +1972,141 @@
     </row>
     <row r="25" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="14"/>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="14"/>
+      <c r="E26" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="14"/>
+      <c r="E28" s="16" t="str">
         <f>$D$19&amp;"1."</f>
         <v>7.8.1.1.</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F28" s="20" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="14"/>
-      <c r="F26" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="14"/>
-      <c r="F27" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="14"/>
-      <c r="F28" s="20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="14"/>
       <c r="F29" s="20" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="14"/>
       <c r="F30" s="20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="14"/>
+      <c r="F31" s="20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="14"/>
       <c r="F32" s="20" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="14"/>
+      <c r="F33" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="14"/>
-      <c r="F34" s="20" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="35" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="14"/>
       <c r="F35" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="14"/>
       <c r="F36" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
+      <c r="F37" s="20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="38" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="16" t="str">
-        <f>$E$25&amp;"1."</f>
-        <v>7.8.1.1.1.</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="39" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="14"/>
       <c r="E39" s="16"/>
+      <c r="F39" s="16" t="str">
+        <f>$E$28&amp;"1."</f>
+        <v>7.8.1.1.1.</v>
+      </c>
       <c r="G39" s="20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="14"/>
       <c r="E40" s="16"/>
+      <c r="G40" s="20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="14"/>
       <c r="E41" s="16"/>
-      <c r="G41" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="26"/>
     </row>
     <row r="42" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="14"/>
       <c r="E42" s="16"/>
-      <c r="G42" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="22"/>
+      <c r="G42" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="24"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="26"/>
     </row>
     <row r="43" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="14"/>
       <c r="E43" s="16"/>
       <c r="G43" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
@@ -2111,163 +2125,184 @@
     <row r="44" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="14"/>
       <c r="E44" s="16"/>
+      <c r="G44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="22"/>
     </row>
     <row r="45" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="14"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="16" t="str">
-        <f>$E$25&amp;"2."</f>
-        <v>7.8.1.1.2.</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="46" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="14"/>
       <c r="E46" s="16"/>
+      <c r="F46" s="16" t="str">
+        <f>$E$28&amp;"2."</f>
+        <v>7.8.1.1.2.</v>
+      </c>
       <c r="G46" s="20" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="14"/>
       <c r="E47" s="16"/>
       <c r="G47" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="14"/>
       <c r="E48" s="16"/>
       <c r="G48" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="14"/>
       <c r="E49" s="16"/>
+      <c r="G49" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="14"/>
-      <c r="E50" s="14" t="str">
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="14"/>
+      <c r="E51" s="14" t="str">
         <f>$D$19&amp;"2."</f>
         <v>7.8.1.2.</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F51" s="20" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
+      <c r="F52" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="53" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="20" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="56" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
+      <c r="F56" s="16" t="str">
+        <f>$E$51&amp;"1."</f>
+        <v>7.8.1.2.1.</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="57" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="16" t="str">
-        <f>$E$50&amp;"1."</f>
-        <v>7.8.1.2.1.</v>
-      </c>
       <c r="G57" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="G58" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="G59" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="G60" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="G61" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="G62" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="G63" s="20" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="64" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
+      <c r="G64" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="65" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="G65" s="20" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="66" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
+      <c r="G66" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="67" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
-      <c r="G67" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="H67" s="20" t="s">
         <v>57</v>
       </c>
@@ -2276,137 +2311,133 @@
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="H68" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
+      <c r="G69" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="H69" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-      <c r="G70" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="H70" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="H71" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="H72" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="15"/>
-    </row>
-    <row r="74" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D74" s="16" t="str">
+      <c r="D73" s="16" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.8.2.</v>
       </c>
+      <c r="E73" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="16"/>
       <c r="E74" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="16"/>
       <c r="E75" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="16"/>
       <c r="E76" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="16"/>
-      <c r="E77" s="17" t="s">
-        <v>63</v>
-      </c>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="16"/>
-      <c r="E78" s="17"/>
+      <c r="E78" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="79" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="16"/>
-      <c r="E79" s="17" t="s">
-        <v>66</v>
-      </c>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
+      <c r="E80" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="81" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="16"/>
-      <c r="E81" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>67</v>
+      <c r="E81" s="17"/>
+      <c r="F81" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="16"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="20" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="83" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="16"/>
-      <c r="E83" s="17"/>
+      <c r="E83" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="84" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="16"/>
-      <c r="E84" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="E84" s="17"/>
       <c r="F84" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="20" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="86" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D86" s="16"/>
-      <c r="E86" s="17"/>
-    </row>
-    <row r="87" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D87" s="16" t="str">
+      <c r="D86" s="16" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.8.3.</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E86" s="17" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="87" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E87" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="88" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="E88" s="27"/>
     </row>
     <row r="89" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="27"/>
@@ -2418,34 +2449,32 @@
       <c r="E91" s="27"/>
     </row>
     <row r="92" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E92" s="27"/>
+      <c r="D92" s="27"/>
     </row>
     <row r="93" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="27"/>
     </row>
     <row r="94" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
     </row>
     <row r="95" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E95" s="27"/>
-    </row>
-    <row r="96" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F96" s="27"/>
-    </row>
-    <row r="97" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F95" s="27"/>
+    </row>
+    <row r="96" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E97" s="27"/>
+    </row>
     <row r="98" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="27"/>
-    </row>
-    <row r="99" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F99" s="27"/>
-    </row>
-    <row r="100" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F98" s="27"/>
+    </row>
+    <row r="99" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E100" s="27"/>
+    </row>
     <row r="101" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E101" s="27"/>
-    </row>
-    <row r="102" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F102" s="27"/>
-    </row>
+      <c r="F101" s="27"/>
+    </row>
+    <row r="102" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="103" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="105" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2454,7 +2483,7 @@
     <row r="108" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="109" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="112" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2862,7 +2891,6 @@
     <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -2881,8 +2909,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="44" max="34" man="1"/>
-    <brk id="73" max="34" man="1"/>
+    <brk id="45" max="34" man="1"/>
+    <brk id="72" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.8採番方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.8採番方式.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8736DD1E-1073-4ABC-B7E4-43F30054A636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7547CCD-192A-4E53-B550-3A26547C76B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="採番方式" sheetId="1" r:id="rId1"/>
+    <sheet name="7.8.採番方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc292985312" localSheetId="0">採番方式!$E$86</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">採番方式!$A$1:$AI$106</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$93</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$93</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$93</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$93</definedName>
+    <definedName name="_Toc292985312" localSheetId="0">'7.8.採番方式'!$E$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.8.採番方式'!$A$1:$AI$106</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.8.採番方式'!$A$1:$AI$93</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.8.採番方式'!$A$1:$AI$93</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.8.採番方式'!$A$1:$AI$93</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.8.採番方式'!$A$1:$AI$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.8採番方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.8採番方式.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0A1040-0174-4351-A8B0-0C913A607A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7547CCD-192A-4E53-B550-3A26547C76B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="採番方式" sheetId="1" r:id="rId1"/>
+    <sheet name="7.8.採番方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc292985312" localSheetId="0">採番方式!$E$87</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">採番方式!$A$1:$AI$107</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$94</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$94</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$94</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">採番方式!$A$1:$AI$94</definedName>
+    <definedName name="_Toc292985312" localSheetId="0">'7.8.採番方式'!$E$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.8.採番方式'!$A$1:$AI$106</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.8.採番方式'!$A$1:$AI$93</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.8.採番方式'!$A$1:$AI$93</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.8.採番方式'!$A$1:$AI$93</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.8.採番方式'!$A$1:$AI$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -224,16 +224,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務上抜け番を許さないIDの場合は、本採番方式を使用して採番を行う。</t>
-    <rPh sb="18" eb="19">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ただし、同時に処理が行われた場合、一方のトランザクションが確定するまではロック解放待ちとなるため、パフォーマンスに与える影響が</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -352,22 +342,6 @@
     <t>「03→05→06」の順に採番を行わなければならない。</t>
   </si>
   <si>
-    <t>抜け番を許容するIDの採番は、Nablarchのシーケンスを使った値の採番を使用する。</t>
-    <rPh sb="30" eb="31">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>行うことができる。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -508,6 +482,65 @@
     <t>１トランザクションで複数のIDを採番する場合の注意点</t>
     <rPh sb="16" eb="18">
       <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シーケンスを使った値の採番を使用する。</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務上抜け番を許さないIDの場合はテーブルを使った値の採番を使用し、抜け番を許す場合は</t>
+    <rPh sb="0" eb="3">
+      <t>ギョウムジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -917,13 +950,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1000,13 +1033,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1089,13 +1122,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1156,13 +1189,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1212,13 +1245,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1268,13 +1301,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1679,7 +1712,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI519"/>
+  <dimension ref="A1:AI518"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1855,13 +1888,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="14"/>
       <c r="E11" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1939,160 +1972,141 @@
     </row>
     <row r="25" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="14"/>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="14"/>
+      <c r="E26" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="14"/>
+      <c r="E28" s="16" t="str">
         <f>$D$19&amp;"1."</f>
         <v>7.8.1.1.</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F28" s="20" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="14"/>
-      <c r="F26" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="14"/>
-      <c r="F27" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="14"/>
-      <c r="F28" s="20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="14"/>
       <c r="F29" s="20" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="14"/>
       <c r="F30" s="20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="14"/>
+      <c r="F31" s="20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="3:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="14"/>
       <c r="F32" s="20" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="14"/>
+      <c r="F33" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="14"/>
-      <c r="F34" s="20" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="35" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="14"/>
       <c r="F35" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="14"/>
       <c r="F36" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="14"/>
-      <c r="E37" s="16"/>
+      <c r="F37" s="20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="38" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="16" t="str">
-        <f>$E$25&amp;"1."</f>
-        <v>7.8.1.1.1.</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="39" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="14"/>
       <c r="E39" s="16"/>
+      <c r="F39" s="16" t="str">
+        <f>$E$28&amp;"1."</f>
+        <v>7.8.1.1.1.</v>
+      </c>
       <c r="G39" s="20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="14"/>
       <c r="E40" s="16"/>
+      <c r="G40" s="20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="14"/>
       <c r="E41" s="16"/>
-      <c r="G41" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="26"/>
     </row>
     <row r="42" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="14"/>
       <c r="E42" s="16"/>
-      <c r="G42" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="22"/>
+      <c r="G42" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="24"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="26"/>
     </row>
     <row r="43" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="14"/>
       <c r="E43" s="16"/>
       <c r="G43" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
@@ -2111,163 +2125,184 @@
     <row r="44" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="14"/>
       <c r="E44" s="16"/>
+      <c r="G44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="22"/>
     </row>
     <row r="45" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="14"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="16" t="str">
-        <f>$E$25&amp;"2."</f>
-        <v>7.8.1.1.2.</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="46" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="14"/>
       <c r="E46" s="16"/>
+      <c r="F46" s="16" t="str">
+        <f>$E$28&amp;"2."</f>
+        <v>7.8.1.1.2.</v>
+      </c>
       <c r="G46" s="20" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="14"/>
       <c r="E47" s="16"/>
       <c r="G47" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="4:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="14"/>
       <c r="E48" s="16"/>
       <c r="G48" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="14"/>
       <c r="E49" s="16"/>
+      <c r="G49" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="50" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="14"/>
-      <c r="E50" s="14" t="str">
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="14"/>
+      <c r="E51" s="14" t="str">
         <f>$D$19&amp;"2."</f>
         <v>7.8.1.2.</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F51" s="20" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
+      <c r="F52" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="53" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="20" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="56" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
+      <c r="F56" s="16" t="str">
+        <f>$E$51&amp;"1."</f>
+        <v>7.8.1.2.1.</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="57" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="16" t="str">
-        <f>$E$50&amp;"1."</f>
-        <v>7.8.1.2.1.</v>
-      </c>
       <c r="G57" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="G58" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="G59" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="G60" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="G61" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="G62" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="G63" s="20" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="64" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
+      <c r="G64" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="65" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="G65" s="20" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="66" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
+      <c r="G66" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="67" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
-      <c r="G67" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="H67" s="20" t="s">
         <v>57</v>
       </c>
@@ -2276,137 +2311,133 @@
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="H68" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
+      <c r="G69" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="H69" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-      <c r="G70" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="H70" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="H71" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="H72" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E73" s="15"/>
-    </row>
-    <row r="74" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D74" s="16" t="str">
+      <c r="D73" s="16" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.8.2.</v>
       </c>
+      <c r="E73" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="16"/>
       <c r="E74" s="17" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="16"/>
       <c r="E75" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="16"/>
       <c r="E76" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="16"/>
-      <c r="E77" s="17" t="s">
-        <v>63</v>
-      </c>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="16"/>
-      <c r="E78" s="17"/>
+      <c r="E78" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="79" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="16"/>
-      <c r="E79" s="17" t="s">
-        <v>66</v>
-      </c>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
+      <c r="E80" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="81" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="16"/>
-      <c r="E81" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>67</v>
+      <c r="E81" s="17"/>
+      <c r="F81" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="16"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="20" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="83" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="16"/>
-      <c r="E83" s="17"/>
+      <c r="E83" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="84" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="16"/>
-      <c r="E84" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="E84" s="17"/>
       <c r="F84" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="20" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="86" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D86" s="16"/>
-      <c r="E86" s="17"/>
-    </row>
-    <row r="87" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D87" s="16" t="str">
+      <c r="D86" s="16" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.8.3.</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E86" s="17" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="87" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E87" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="88" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="E88" s="27"/>
     </row>
     <row r="89" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="27"/>
@@ -2418,34 +2449,32 @@
       <c r="E91" s="27"/>
     </row>
     <row r="92" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E92" s="27"/>
+      <c r="D92" s="27"/>
     </row>
     <row r="93" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="27"/>
     </row>
     <row r="94" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
     </row>
     <row r="95" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E95" s="27"/>
-    </row>
-    <row r="96" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F96" s="27"/>
-    </row>
-    <row r="97" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F95" s="27"/>
+    </row>
+    <row r="96" spans="4:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E97" s="27"/>
+    </row>
     <row r="98" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="27"/>
-    </row>
-    <row r="99" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F99" s="27"/>
-    </row>
-    <row r="100" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F98" s="27"/>
+    </row>
+    <row r="99" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E100" s="27"/>
+    </row>
     <row r="101" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E101" s="27"/>
-    </row>
-    <row r="102" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F102" s="27"/>
-    </row>
+      <c r="F101" s="27"/>
+    </row>
+    <row r="102" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="103" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="105" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2454,7 +2483,7 @@
     <row r="108" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="109" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="5:6" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="112" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2862,7 +2891,6 @@
     <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -2881,8 +2909,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="44" max="34" man="1"/>
-    <brk id="73" max="34" man="1"/>
+    <brk id="45" max="34" man="1"/>
+    <brk id="72" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
